--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="H2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="I2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="J2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q2">
-        <v>0.022661990521</v>
+        <v>0.1200966714667778</v>
       </c>
       <c r="R2">
-        <v>0.203957914689</v>
+        <v>1.080870043201</v>
       </c>
       <c r="S2">
-        <v>1.706871386644145E-05</v>
+        <v>8.093074160031967E-05</v>
       </c>
       <c r="T2">
-        <v>1.706871386644145E-05</v>
+        <v>8.093074160031967E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="H3">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="I3">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="J3">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q3">
-        <v>3.323560299704</v>
+        <v>7.651032051554667</v>
       </c>
       <c r="R3">
-        <v>29.91204269733601</v>
+        <v>68.85928846399199</v>
       </c>
       <c r="S3">
-        <v>0.002503262002556371</v>
+        <v>0.005155877264353859</v>
       </c>
       <c r="T3">
-        <v>0.002503262002556371</v>
+        <v>0.005155877264353859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="H4">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="I4">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="J4">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N4">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q4">
-        <v>2.136651912775334</v>
+        <v>5.575782560277223</v>
       </c>
       <c r="R4">
-        <v>19.229867214978</v>
+        <v>50.182043042495</v>
       </c>
       <c r="S4">
-        <v>0.001609298181355769</v>
+        <v>0.003757408195365299</v>
       </c>
       <c r="T4">
-        <v>0.001609298181355769</v>
+        <v>0.0037574081953653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="H5">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="I5">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="J5">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N5">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O5">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P5">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q5">
-        <v>0.002391312015</v>
+        <v>0.002871857087666667</v>
       </c>
       <c r="R5">
-        <v>0.021521808135</v>
+        <v>0.025846713789</v>
       </c>
       <c r="S5">
-        <v>1.80110482843929E-06</v>
+        <v>1.935286973705113E-06</v>
       </c>
       <c r="T5">
-        <v>1.801104828439291E-06</v>
+        <v>1.935286973705114E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,43 +785,43 @@
         <v>22.077736</v>
       </c>
       <c r="H6">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="I6">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="J6">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N6">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q6">
-        <v>3.323560299704</v>
+        <v>7.651032051554667</v>
       </c>
       <c r="R6">
-        <v>29.91204269733601</v>
+        <v>68.85928846399199</v>
       </c>
       <c r="S6">
-        <v>0.002503262002556371</v>
+        <v>0.005155877264353859</v>
       </c>
       <c r="T6">
-        <v>0.002503262002556371</v>
+        <v>0.005155877264353859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>22.077736</v>
       </c>
       <c r="H7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="I7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="J7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>22.077736</v>
       </c>
       <c r="N7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q7">
-        <v>487.4264268856961</v>
+        <v>487.4264268856959</v>
       </c>
       <c r="R7">
-        <v>4386.837841971264</v>
+        <v>4386.837841971263</v>
       </c>
       <c r="S7">
-        <v>0.3671231882188063</v>
+        <v>0.3284669068814764</v>
       </c>
       <c r="T7">
-        <v>0.3671231882188063</v>
+        <v>0.3284669068814764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>22.077736</v>
       </c>
       <c r="H8">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="I8">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="J8">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N8">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q8">
-        <v>313.3569165076747</v>
+        <v>355.2179303568933</v>
       </c>
       <c r="R8">
-        <v>2820.212248569072</v>
+        <v>3196.96137321204</v>
       </c>
       <c r="S8">
-        <v>0.2360163173214435</v>
+        <v>0.2393742489479954</v>
       </c>
       <c r="T8">
-        <v>0.2360163173214435</v>
+        <v>0.2393742489479954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>22.077736</v>
       </c>
       <c r="H9">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="I9">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="J9">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N9">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O9">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P9">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q9">
-        <v>0.35070483636</v>
+        <v>0.182958198232</v>
       </c>
       <c r="R9">
-        <v>3.15634352724</v>
+        <v>1.646623784088</v>
       </c>
       <c r="S9">
-        <v>0.0002641462804363517</v>
+        <v>0.0001232918654941247</v>
       </c>
       <c r="T9">
-        <v>0.0002641462804363518</v>
+        <v>0.0001232918654941248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="H10">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="I10">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="J10">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N10">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q10">
-        <v>2.136651912775334</v>
+        <v>5.575782560277223</v>
       </c>
       <c r="R10">
-        <v>19.229867214978</v>
+        <v>50.182043042495</v>
       </c>
       <c r="S10">
-        <v>0.001609298181355769</v>
+        <v>0.003757408195365299</v>
       </c>
       <c r="T10">
-        <v>0.001609298181355769</v>
+        <v>0.0037574081953653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="H11">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="I11">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="J11">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>22.077736</v>
       </c>
       <c r="N11">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q11">
-        <v>313.3569165076747</v>
+        <v>355.2179303568933</v>
       </c>
       <c r="R11">
-        <v>2820.212248569072</v>
+        <v>3196.96137321204</v>
       </c>
       <c r="S11">
-        <v>0.2360163173214435</v>
+        <v>0.2393742489479954</v>
       </c>
       <c r="T11">
-        <v>0.2360163173214435</v>
+        <v>0.2393742489479954</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="H12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="I12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="J12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q12">
-        <v>201.4510328267952</v>
+        <v>258.8693823050028</v>
       </c>
       <c r="R12">
-        <v>1813.059295441156</v>
+        <v>2329.824440745025</v>
       </c>
       <c r="S12">
-        <v>0.1517302742772456</v>
+        <v>0.1744468920885626</v>
       </c>
       <c r="T12">
-        <v>0.1517302742772456</v>
+        <v>0.1744468920885627</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="H13">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="I13">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="J13">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1234,28 +1234,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N13">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O13">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P13">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q13">
-        <v>0.22546128003</v>
+        <v>0.1333330097283334</v>
       </c>
       <c r="R13">
-        <v>2.029151520270001</v>
+        <v>1.199997087555</v>
       </c>
       <c r="S13">
-        <v>0.0001698144773835112</v>
+        <v>8.985044485684756E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001698144773835112</v>
+        <v>8.985044485684758E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,46 +1278,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="H14">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="I14">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="J14">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N14">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q14">
-        <v>0.002391312015</v>
+        <v>0.002871857087666667</v>
       </c>
       <c r="R14">
-        <v>0.021521808135</v>
+        <v>0.025846713789</v>
       </c>
       <c r="S14">
-        <v>1.80110482843929E-06</v>
+        <v>1.935286973705113E-06</v>
       </c>
       <c r="T14">
-        <v>1.801104828439291E-06</v>
+        <v>1.935286973705114E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="H15">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="I15">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="J15">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,25 +1361,25 @@
         <v>22.077736</v>
       </c>
       <c r="N15">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q15">
-        <v>0.35070483636</v>
+        <v>0.182958198232</v>
       </c>
       <c r="R15">
-        <v>3.15634352724</v>
+        <v>1.646623784088</v>
       </c>
       <c r="S15">
-        <v>0.0002641462804363517</v>
+        <v>0.0001232918654941247</v>
       </c>
       <c r="T15">
-        <v>0.0002641462804363518</v>
+        <v>0.0001232918654941248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="H16">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="I16">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="J16">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N16">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q16">
-        <v>0.22546128003</v>
+        <v>0.1333330097283334</v>
       </c>
       <c r="R16">
-        <v>2.029151520270001</v>
+        <v>1.199997087555</v>
       </c>
       <c r="S16">
-        <v>0.0001698144773835112</v>
+        <v>8.985044485684756E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001698144773835112</v>
+        <v>8.985044485684758E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="H17">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="I17">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="J17">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1482,28 +1482,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N17">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O17">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P17">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q17">
-        <v>0.000252333225</v>
+        <v>6.867436900000002E-05</v>
       </c>
       <c r="R17">
-        <v>0.002270999025</v>
+        <v>0.0006180693210000001</v>
       </c>
       <c r="S17">
-        <v>1.900540736935819E-07</v>
+        <v>4.627828185597526E-08</v>
       </c>
       <c r="T17">
-        <v>1.90054073693582E-07</v>
+        <v>4.627828185597527E-08</v>
       </c>
     </row>
   </sheetData>
